--- a/Active Data/TestData_Sample Project.xlsx
+++ b/Active Data/TestData_Sample Project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Full Time Jobs\4. Automation Test Katalon Studio\Repository\SQA_Automation_Test_Project\Active Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B7A48B-4CAE-45E6-B24F-839D423F4478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA68ECD-8C31-414F-AF23-3AFC5BE5A4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -695,7 +695,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
